--- a/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>14,971.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15,356.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15,631.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15,984.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>17,056.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15,984.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15,631.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>15,356.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>14,971.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>17056</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>14971</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>15799.6</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>14,971.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15,356.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15,631.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>15,984.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>17,056.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>15,984.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15,631.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15,356.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14,971.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>17056</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>14971</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>15799.6</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>7,752.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8,015.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8,287.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8,418.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>8,826.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8,418.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8,287.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8,015.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7,752.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>8826</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>7752</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>8259.6</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>343.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>347.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>354.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>363.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>374.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>363.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>354.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>347.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>343.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>374</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>343</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>356.2</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2,883.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,963.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,879.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3,449.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3,790.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3,449.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,879.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,963.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,883.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3790</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2879</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>3192.8</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>3,993.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4,031.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4,111.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3,754.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>4,066.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3,754.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4,111.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4,031.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3,993.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>4111</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>3754</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>3991</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>723.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>849.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,811.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>636.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>716.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>636.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,811.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>849.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>723.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1811</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>947</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,716.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,880.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5,922.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4,390.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4,782.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4,390.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,922.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4,880.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,716.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5922</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>4938</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>4,716.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4,880.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5,922.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4,390.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>4,782.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4,390.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5,922.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4,880.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4,716.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5922</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>4938</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,716.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4,880.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,922.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,390.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>4,782.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,390.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,922.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4,880.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,716.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5922</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>4390</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4938</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,301.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,301.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-82.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,233.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,279.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,233.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-82.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,301.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,301.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1301</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-82</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1006.4</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,415.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,579.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6,004.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,157.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,503.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,157.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6,004.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,579.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,415.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>6004</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3157</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3931.6</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,415.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,579.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6,004.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,157.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,503.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,157.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6,004.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,579.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,415.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>6004</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3157</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3931.6</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,148.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,148.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>1,092.00</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1,092.00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1,092.00</t>
         </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,148.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,148.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1148</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1092</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1114.4</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>66,869.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>66,869.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>66,869.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>62,410.00</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>62,410.00</t>
         </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>66,869.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>66,869.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>66,869.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>66869</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>62410</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>65085.4</v>
       </c>
     </row>
     <row r="19"/>
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>16.04</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>26.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>14.87</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>17.442</v>
       </c>
     </row>
     <row r="22">
@@ -1176,37 +1009,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>16.03</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>17.436</v>
       </c>
     </row>
     <row r="23"/>
@@ -1225,37 +1049,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>16.04</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>26.27</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>14.87</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>26.27</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>17.442</v>
       </c>
     </row>
     <row r="26">
@@ -1266,37 +1081,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>16.03</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14.45</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>26.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>17.436</v>
       </c>
     </row>
     <row r="27"/>
